--- a/CS4273 - Introduce to Software Engineering/M12/CS4273.M12.CTTT.2.xlsx
+++ b/CS4273 - Introduce to Software Engineering/M12/CS4273.M12.CTTT.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\CS4273 - NMCNPM\M12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\CS4273 - Introduce to Software Engineering\M12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535DD567-82D1-46E4-87C5-393E50727262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D77C10C-2864-4061-9C1B-03A9ED37D08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="55">
   <si>
     <t>TRƯỜNG ĐH CÔNG NGHỆ THÔNG TIN</t>
   </si>
@@ -194,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0#######"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -204,56 +204,72 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -372,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -481,6 +497,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,7 +808,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -953,7 +972,9 @@
         <v>46</v>
       </c>
       <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
     </row>
@@ -979,7 +1000,9 @@
       <c r="G11" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="30"/>
+      <c r="H11" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
     </row>
@@ -1005,7 +1028,9 @@
       <c r="G12" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="30"/>
+      <c r="H12" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
     </row>
@@ -1031,8 +1056,12 @@
       <c r="G13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="H13" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>46</v>
+      </c>
       <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1057,7 +1086,9 @@
       <c r="G14" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="30"/>
+      <c r="H14" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
     </row>
@@ -1083,7 +1114,9 @@
       <c r="G15" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="30"/>
+      <c r="H15" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
     </row>
@@ -1109,7 +1142,9 @@
       <c r="G16" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="30"/>
+      <c r="H16" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
     </row>
@@ -1135,7 +1170,9 @@
       <c r="G17" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="30"/>
+      <c r="H17" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
     </row>
@@ -1183,8 +1220,12 @@
       <c r="G19" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
+      <c r="H19" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="J19" s="30"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1209,8 +1250,12 @@
       <c r="G20" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
+      <c r="H20" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1235,7 +1280,9 @@
       <c r="G21" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="30"/>
+      <c r="H21" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
     </row>
@@ -1287,8 +1334,12 @@
       <c r="G23" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
+      <c r="H23" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="J23" s="30"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1311,7 +1362,9 @@
         <v>46</v>
       </c>
       <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
+      <c r="H24" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
     </row>
@@ -1357,7 +1410,9 @@
       <c r="G26" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="30"/>
+      <c r="H26" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
     </row>
